--- a/it/lab01/lab01.xlsx
+++ b/it/lab01/lab01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grigorijtomczuk/Desktop/suai/it/lab01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B341E9-EB4E-6540-A0F0-6639394ADB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BD3575-4AA6-B742-8E58-DD65A9C1FB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30220" yWindow="780" windowWidth="23400" windowHeight="17160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -275,7 +275,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$₽-419]"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -521,6 +521,18 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -531,7 +543,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -539,31 +551,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -595,6 +592,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ColLevel_1" xfId="2" builtinId="2" iLevel="0"/>
@@ -603,12 +603,15 @@
     <cellStyle name="RowLevel_1" xfId="1" builtinId="1" iLevel="0"/>
     <cellStyle name="RowLevel_2" xfId="3" builtinId="1" iLevel="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="11">
     <dxf>
       <numFmt numFmtId="165" formatCode="#,##0.00\ [$₽-419]"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ [$₽-419]"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="#,##0.00\ [$₽-419]"/>
@@ -621,15 +624,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ [$₽-419]"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1011,7 +1005,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F56B0A9-CCDE-0E44-B319-898EDF5A6812}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Итого" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Менеджер">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2F56B0A9-CCDE-0E44-B319-898EDF5A6812}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Итого" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Менеджер">
   <location ref="D26:E30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -1114,7 +1108,7 @@
     <dataField name="Сумма продаж" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="12">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1131,18 +1125,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4903D893-3826-C54F-8373-2FE0FD161FDF}" name="Автосалон" displayName="Автосалон" ref="A1:J19" totalsRowCount="1" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4903D893-3826-C54F-8373-2FE0FD161FDF}" name="Автосалон" displayName="Автосалон" ref="A1:J19" totalsRowCount="1" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A1:J18" xr:uid="{4903D893-3826-C54F-8373-2FE0FD161FDF}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{23847289-231B-B442-A21B-9261B293418F}" name="Марка" totalsRowLabel="Итого"/>
-    <tableColumn id="2" xr3:uid="{0A4B0988-FD4A-7949-9113-604EEE34A2CB}" name="Модель" totalsRowFunction="count" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0A4B0988-FD4A-7949-9113-604EEE34A2CB}" name="Модель" totalsRowFunction="count" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{ADB8EEA3-31C3-8E4B-98A5-269118C94EC5}" name="Год выпуска" totalsRowFunction="min"/>
-    <tableColumn id="4" xr3:uid="{73E8E564-79B2-0D46-A906-95F8A8B384E6}" name="Пробег (тыс. км)" totalsRowFunction="average" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{73E8E564-79B2-0D46-A906-95F8A8B384E6}" name="Пробег (тыс. км)" totalsRowFunction="average" totalsRowDxfId="5"/>
     <tableColumn id="5" xr3:uid="{FDE32FEB-B2FC-E442-9FA6-94358ED63220}" name="Мощность (л.с.)" totalsRowFunction="max"/>
     <tableColumn id="6" xr3:uid="{3D7F8111-FAB7-BB4A-8FF0-90C659E3F41E}" name="Цвет"/>
-    <tableColumn id="7" xr3:uid="{5645D65A-3614-0040-AE31-E01A12B9A062}" name="Цена" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{8ED7820D-0161-6A4B-B27D-61CDFE1C0648}" name="Дата приёма" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{2F3ACCE7-830F-CC4F-AA60-4E5A48F811C9}" name="Срок пребывания" dataDxfId="6" totalsRowDxfId="2">
+    <tableColumn id="7" xr3:uid="{5645D65A-3614-0040-AE31-E01A12B9A062}" name="Цена" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{8ED7820D-0161-6A4B-B27D-61CDFE1C0648}" name="Дата приёма" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{2F3ACCE7-830F-CC4F-AA60-4E5A48F811C9}" name="Срок пребывания" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>TODAY()-Автосалон[[#This Row],[Дата приёма]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{6FEBEF3C-2257-EA44-BF48-ECC31827F2D6}" name="Менеджер"/>
@@ -1440,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1459,34 +1453,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1494,7 +1488,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C2">
@@ -1509,15 +1503,15 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="9">
         <v>850000</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="11">
         <v>44927</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="12">
         <f ca="1">TODAY()-Автосалон[[#This Row],[Дата приёма]]</f>
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
@@ -1527,7 +1521,7 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C3">
@@ -1542,15 +1536,15 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="9">
         <v>900000</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="11">
         <v>45056</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="12">
         <f ca="1">TODAY()-Автосалон[[#This Row],[Дата приёма]]</f>
-        <v>710</v>
+        <v>724</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
@@ -1560,7 +1554,7 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C4">
@@ -1575,15 +1569,15 @@
       <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="9">
         <v>750000</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="11">
         <v>45000</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="12">
         <f ca="1">TODAY()-Автосалон[[#This Row],[Дата приёма]]</f>
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="J4" t="s">
         <v>25</v>
@@ -1593,7 +1587,7 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C5">
@@ -1608,15 +1602,15 @@
       <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="9">
         <v>2300000</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="11">
         <v>45139</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="12">
         <f ca="1">TODAY()-Автосалон[[#This Row],[Дата приёма]]</f>
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="J5" t="s">
         <v>23</v>
@@ -1626,7 +1620,7 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C6">
@@ -1641,15 +1635,15 @@
       <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="9">
         <v>800000</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="11">
         <v>45342</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="12">
         <f ca="1">TODAY()-Автосалон[[#This Row],[Дата приёма]]</f>
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
@@ -1659,7 +1653,7 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C7">
@@ -1674,15 +1668,15 @@
       <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="9">
         <v>900000</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="11">
         <v>45056</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="12">
         <f ca="1">TODAY()-Автосалон[[#This Row],[Дата приёма]]</f>
-        <v>710</v>
+        <v>724</v>
       </c>
       <c r="J7" t="s">
         <v>23</v>
@@ -1692,7 +1686,7 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C8">
@@ -1707,15 +1701,15 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="9">
         <v>950000</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="11">
         <v>44997</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="12">
         <f ca="1">TODAY()-Автосалон[[#This Row],[Дата приёма]]</f>
-        <v>769</v>
+        <v>783</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
@@ -1725,7 +1719,7 @@
       <c r="A9" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="29">
         <v>6</v>
       </c>
       <c r="C9">
@@ -1740,15 +1734,15 @@
       <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="9">
         <v>1150000</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="11">
         <v>45139</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="12">
         <f ca="1">TODAY()-Автосалон[[#This Row],[Дата приёма]]</f>
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
@@ -1758,7 +1752,7 @@
       <c r="A10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>65</v>
       </c>
       <c r="C10">
@@ -1773,15 +1767,15 @@
       <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="9">
         <v>980000</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="11">
         <v>45122</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="12">
         <f ca="1">TODAY()-Автосалон[[#This Row],[Дата приёма]]</f>
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
@@ -1791,7 +1785,7 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C11">
@@ -1806,15 +1800,15 @@
       <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="9">
         <v>870000</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="11">
         <v>45221</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="12">
         <f ca="1">TODAY()-Автосалон[[#This Row],[Дата приёма]]</f>
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="J11" t="s">
         <v>25</v>
@@ -1824,7 +1818,7 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>66</v>
       </c>
       <c r="C12">
@@ -1839,15 +1833,15 @@
       <c r="F12" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="9">
         <v>1230000</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="11">
         <v>45107</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="12">
         <f ca="1">TODAY()-Автосалон[[#This Row],[Дата приёма]]</f>
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
@@ -1857,7 +1851,7 @@
       <c r="A13" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>68</v>
       </c>
       <c r="C13">
@@ -1872,15 +1866,15 @@
       <c r="F13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="9">
         <v>1120000</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="11">
         <v>45265</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="12">
         <f ca="1">TODAY()-Автосалон[[#This Row],[Дата приёма]]</f>
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
@@ -1890,7 +1884,7 @@
       <c r="A14" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>70</v>
       </c>
       <c r="C14">
@@ -1905,15 +1899,15 @@
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="9">
         <v>890000</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="11">
         <v>45064</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="12">
         <f ca="1">TODAY()-Автосалон[[#This Row],[Дата приёма]]</f>
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="J14" t="s">
         <v>25</v>
@@ -1923,7 +1917,7 @@
       <c r="A15" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>72</v>
       </c>
       <c r="C15">
@@ -1938,15 +1932,15 @@
       <c r="F15" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="9">
         <v>1100000</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="11">
         <v>45170</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="12">
         <f ca="1">TODAY()-Автосалон[[#This Row],[Дата приёма]]</f>
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="J15" t="s">
         <v>24</v>
@@ -1956,7 +1950,7 @@
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C16">
@@ -1974,12 +1968,12 @@
       <c r="G16">
         <v>760000</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="10">
         <v>45041</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="12">
         <f ca="1">TODAY()-Автосалон[[#This Row],[Дата приёма]]</f>
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="J16" t="s">
         <v>23</v>
@@ -1989,7 +1983,7 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>73</v>
       </c>
       <c r="C17">
@@ -2007,12 +2001,12 @@
       <c r="G17">
         <v>1650000</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="10">
         <v>45240</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="12">
         <f ca="1">TODAY()-Автосалон[[#This Row],[Дата приёма]]</f>
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="J17" t="s">
         <v>25</v>
@@ -2022,7 +2016,7 @@
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C18">
@@ -2040,12 +2034,12 @@
       <c r="G18">
         <v>730000</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="10">
         <v>45303</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="12">
         <f ca="1">TODAY()-Автосалон[[#This Row],[Дата приёма]]</f>
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
@@ -2063,7 +2057,7 @@
         <f>SUBTOTAL(105,Автосалон[Год выпуска])</f>
         <v>2016</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="8">
         <f>SUBTOTAL(101,Автосалон[Пробег (тыс. км)])</f>
         <v>55.352941176470587</v>
       </c>
@@ -2071,26 +2065,26 @@
         <f>SUBTOTAL(104,Автосалон[Мощность (л.с.)])</f>
         <v>249</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="9">
         <f>SUBTOTAL(109,Автосалон[Цена])</f>
         <v>17930000</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="28" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2114,7 +2108,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
@@ -2122,34 +2116,34 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="9">
         <v>6910000</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="9">
         <v>6060000</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="9">
         <v>4960000</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="9">
         <v>17930000</v>
       </c>
     </row>
@@ -2168,1238 +2162,1238 @@
   </sheetPr>
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" workbookViewId="0">
+      <selection activeCell="F24" activeCellId="1" sqref="C1 F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.83203125" customWidth="1"/>
-    <col min="2" max="4" width="9.83203125" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="5" max="5" width="9.83203125" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="6" max="8" width="9.83203125" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="9" max="9" width="9.83203125" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="2" max="4" width="9.83203125" customWidth="1" outlineLevel="2"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="8" width="9.83203125" customWidth="1" outlineLevel="2"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="12.1640625" customWidth="1"/>
-    <col min="11" max="13" width="9.83203125" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="14" max="14" width="9.83203125" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="15" max="17" width="9.83203125" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="18" max="18" width="9.83203125" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="11" max="13" width="9.83203125" customWidth="1" outlineLevel="2"/>
+    <col min="14" max="14" width="9.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="17" width="9.83203125" customWidth="1" outlineLevel="2"/>
+    <col min="18" max="18" width="9.83203125" customWidth="1" outlineLevel="1"/>
     <col min="19" max="19" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="16" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:19" s="18" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="25" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="19"/>
-    </row>
-    <row r="3" spans="1:19" ht="17" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="30"/>
+    </row>
+    <row r="3" spans="1:19" ht="17" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="14">
         <v>120</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="14">
         <v>80</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="14">
         <v>76</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <f>SUM(B3:D3)</f>
         <v>276</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="14">
         <v>127</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="14">
         <v>148</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="14">
         <v>220</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="23">
         <f>SUM(F3:H3)</f>
         <v>495</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="24">
         <f>SUM(E3,I3)</f>
         <v>771</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="14">
         <v>120</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="14">
         <v>80</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="14">
         <v>76</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="23">
         <f>SUM(K3:M3)</f>
         <v>276</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="14">
         <v>127</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="14">
         <v>148</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="14">
         <v>220</v>
       </c>
-      <c r="R3" s="24">
+      <c r="R3" s="23">
         <f>SUM(O3:Q3)</f>
         <v>495</v>
       </c>
-      <c r="S3" s="25">
+      <c r="S3" s="24">
         <f>SUM(N3,R3)</f>
         <v>771</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="17" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:19" ht="17" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="14">
         <v>40</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="14">
         <v>24</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="14">
         <v>16</v>
       </c>
-      <c r="E4" s="24">
-        <f t="shared" ref="E4:E7" si="0">SUM(B4:D4)</f>
+      <c r="E4" s="23">
+        <f t="shared" ref="E4:E6" si="0">SUM(B4:D4)</f>
         <v>80</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="14">
         <v>53</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="14">
         <v>66</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="14">
         <v>152</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="23">
         <f>SUM(F4:H4)</f>
         <v>271</v>
       </c>
-      <c r="J4" s="25">
-        <f t="shared" ref="J4:J7" si="1">SUM(E4,I4)</f>
+      <c r="J4" s="24">
+        <f t="shared" ref="J4:J6" si="1">SUM(E4,I4)</f>
         <v>351</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="14">
         <v>43</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="14">
         <v>24</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="14">
         <v>16</v>
       </c>
-      <c r="N4" s="24">
-        <f t="shared" ref="N4:N7" si="2">SUM(K4:M4)</f>
+      <c r="N4" s="23">
+        <f t="shared" ref="N4:N6" si="2">SUM(K4:M4)</f>
         <v>83</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="14">
         <v>53</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="14">
         <v>66</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="14">
         <v>152</v>
       </c>
-      <c r="R4" s="24">
-        <f t="shared" ref="R4:R7" si="3">SUM(O4:Q4)</f>
+      <c r="R4" s="23">
+        <f t="shared" ref="R4:R6" si="3">SUM(O4:Q4)</f>
         <v>271</v>
       </c>
-      <c r="S4" s="25">
+      <c r="S4" s="24">
         <f t="shared" ref="S4:S6" si="4">SUM(N4,R4)</f>
         <v>354</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="17" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:19" ht="17" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="14">
         <v>50</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="14">
         <v>18</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="14">
         <v>12</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="14">
         <v>17</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="14">
         <v>25</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="14">
         <v>78</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="23">
         <f>SUM(F5:H5)</f>
         <v>120</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="14">
         <v>50</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="14">
         <v>25</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="14">
         <v>12</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="23">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="14">
         <v>64</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="14">
         <v>25</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="14">
         <v>32</v>
       </c>
-      <c r="R5" s="24">
+      <c r="R5" s="23">
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="S5" s="25">
+      <c r="S5" s="24">
         <f t="shared" si="4"/>
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="17" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:19" ht="17" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="14">
         <v>30</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="14">
         <v>40</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="14">
         <v>88</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="14">
         <v>42</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="14">
         <v>88</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="14">
         <v>112</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="23">
         <f>SUM(F6:H6)</f>
         <v>242</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="24">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="14">
         <v>30</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="14">
         <v>40</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="14">
         <v>53</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="23">
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="14">
         <v>42</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="14">
         <v>88</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="14">
         <v>112</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6" s="23">
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="24">
         <f t="shared" si="4"/>
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="16" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:19" ht="16" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <f>SUM(B3:B6)</f>
         <v>240</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <f t="shared" ref="C7:D7" si="5">SUM(C3:C6)</f>
         <v>162</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <f t="shared" si="5"/>
         <v>192</v>
       </c>
-      <c r="E7" s="22">
-        <f>SUM(E3:E6)</f>
+      <c r="E7" s="21">
+        <f t="shared" ref="E7:K7" si="6">SUM(E3:E6)</f>
         <v>594</v>
       </c>
-      <c r="F7" s="22">
-        <f>SUM(F3:F6)</f>
+      <c r="F7" s="21">
+        <f t="shared" si="6"/>
         <v>239</v>
       </c>
-      <c r="G7" s="22">
-        <f>SUM(G3:G6)</f>
+      <c r="G7" s="21">
+        <f t="shared" si="6"/>
         <v>327</v>
       </c>
-      <c r="H7" s="22">
-        <f>SUM(H3:H6)</f>
+      <c r="H7" s="21">
+        <f t="shared" si="6"/>
         <v>562</v>
       </c>
-      <c r="I7" s="22">
-        <f>SUM(I3:I6)</f>
+      <c r="I7" s="21">
+        <f t="shared" si="6"/>
         <v>1128</v>
       </c>
-      <c r="J7" s="23">
-        <f>SUM(J3:J6)</f>
+      <c r="J7" s="22">
+        <f t="shared" si="6"/>
         <v>1722</v>
       </c>
-      <c r="K7" s="22">
-        <f>SUM(K3:K6)</f>
+      <c r="K7" s="21">
+        <f t="shared" si="6"/>
         <v>243</v>
       </c>
-      <c r="L7" s="22">
-        <f t="shared" ref="L7" si="6">SUM(L3:L6)</f>
+      <c r="L7" s="21">
+        <f t="shared" ref="L7" si="7">SUM(L3:L6)</f>
         <v>169</v>
       </c>
-      <c r="M7" s="22">
-        <f t="shared" ref="M7" si="7">SUM(M3:M6)</f>
+      <c r="M7" s="21">
+        <f t="shared" ref="M7" si="8">SUM(M3:M6)</f>
         <v>157</v>
       </c>
-      <c r="N7" s="22">
-        <f>SUM(N3:N6)</f>
+      <c r="N7" s="21">
+        <f t="shared" ref="N7:S7" si="9">SUM(N3:N6)</f>
         <v>569</v>
       </c>
-      <c r="O7" s="22">
-        <f>SUM(O3:O6)</f>
+      <c r="O7" s="21">
+        <f t="shared" si="9"/>
         <v>286</v>
       </c>
-      <c r="P7" s="22">
-        <f>SUM(P3:P6)</f>
+      <c r="P7" s="21">
+        <f t="shared" si="9"/>
         <v>327</v>
       </c>
-      <c r="Q7" s="22">
-        <f>SUM(Q3:Q6)</f>
+      <c r="Q7" s="21">
+        <f t="shared" si="9"/>
         <v>516</v>
       </c>
-      <c r="R7" s="22">
-        <f>SUM(R3:R6)</f>
+      <c r="R7" s="21">
+        <f t="shared" si="9"/>
         <v>1129</v>
       </c>
-      <c r="S7" s="23">
-        <f>SUM(S3:S6)</f>
+      <c r="S7" s="22">
+        <f t="shared" si="9"/>
         <v>1698</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="19"/>
-    </row>
-    <row r="9" spans="1:19" ht="17" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="30"/>
+    </row>
+    <row r="9" spans="1:19" ht="17" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="14">
         <v>112</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="14">
         <v>90</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="14">
         <v>184</v>
       </c>
-      <c r="E9" s="24">
-        <f t="shared" ref="E9:E13" si="8">SUM(B9:D9)</f>
+      <c r="E9" s="23">
+        <f t="shared" ref="E9:E12" si="10">SUM(B9:D9)</f>
         <v>386</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="14">
         <v>124</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="14">
         <v>130</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="14">
         <v>231</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="23">
         <f>SUM(F9:H9)</f>
         <v>485</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="24">
         <f>SUM(E9,I9)</f>
         <v>871</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="14">
         <v>112</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="14">
         <v>90</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="14">
         <v>184</v>
       </c>
-      <c r="N9" s="24">
-        <f t="shared" ref="N9:N13" si="9">SUM(K9:M9)</f>
+      <c r="N9" s="23">
+        <f t="shared" ref="N9:N12" si="11">SUM(K9:M9)</f>
         <v>386</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="14">
         <v>124</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="14">
         <v>130</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="14">
         <v>231</v>
       </c>
-      <c r="R9" s="24">
-        <f t="shared" ref="R9:R13" si="10">SUM(O9:Q9)</f>
+      <c r="R9" s="23">
+        <f t="shared" ref="R9:R12" si="12">SUM(O9:Q9)</f>
         <v>485</v>
       </c>
-      <c r="S9" s="25">
+      <c r="S9" s="24">
         <f>SUM(N9,R9)</f>
         <v>871</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="17" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:19" ht="17" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="14">
         <v>12</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="14">
         <v>18</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="14">
         <v>101</v>
       </c>
-      <c r="E10" s="24">
-        <f t="shared" si="8"/>
+      <c r="E10" s="23">
+        <f t="shared" si="10"/>
         <v>131</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="14">
         <v>74</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="14">
         <v>125</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="14">
         <v>120</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="23">
         <f>SUM(F10:H10)</f>
         <v>319</v>
       </c>
-      <c r="J10" s="25">
-        <f t="shared" ref="J10:J12" si="11">SUM(E10,I10)</f>
+      <c r="J10" s="24">
+        <f t="shared" ref="J10:J12" si="13">SUM(E10,I10)</f>
         <v>450</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="14">
         <v>12</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="14">
         <v>18</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="14">
         <v>101</v>
       </c>
-      <c r="N10" s="24">
-        <f t="shared" si="9"/>
+      <c r="N10" s="23">
+        <f t="shared" si="11"/>
         <v>131</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="14">
         <v>74</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="14">
         <v>125</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="14">
         <v>120</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="23">
+        <f t="shared" si="12"/>
+        <v>319</v>
+      </c>
+      <c r="S10" s="24">
+        <f t="shared" ref="S10:S12" si="14">SUM(N10,R10)</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="17" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="14">
+        <v>33</v>
+      </c>
+      <c r="C11" s="14">
+        <v>27</v>
+      </c>
+      <c r="D11" s="14">
+        <v>77</v>
+      </c>
+      <c r="E11" s="23">
         <f t="shared" si="10"/>
-        <v>319</v>
-      </c>
-      <c r="S10" s="25">
-        <f t="shared" ref="S10:S12" si="12">SUM(N10,R10)</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="17" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="10">
-        <v>33</v>
-      </c>
-      <c r="C11" s="10">
-        <v>27</v>
-      </c>
-      <c r="D11" s="10">
-        <v>77</v>
-      </c>
-      <c r="E11" s="24">
-        <f t="shared" si="8"/>
         <v>137</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="14">
         <v>95</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="14">
         <v>76</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="14">
         <v>80</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="23">
         <f>SUM(F11:H11)</f>
         <v>251</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="24">
+        <f t="shared" si="13"/>
+        <v>388</v>
+      </c>
+      <c r="K11" s="14">
+        <v>33</v>
+      </c>
+      <c r="L11" s="14">
+        <v>27</v>
+      </c>
+      <c r="M11" s="14">
+        <v>77</v>
+      </c>
+      <c r="N11" s="23">
         <f t="shared" si="11"/>
+        <v>137</v>
+      </c>
+      <c r="O11" s="14">
+        <v>95</v>
+      </c>
+      <c r="P11" s="14">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>80</v>
+      </c>
+      <c r="R11" s="23">
+        <f t="shared" si="12"/>
+        <v>251</v>
+      </c>
+      <c r="S11" s="24">
+        <f t="shared" si="14"/>
         <v>388</v>
       </c>
-      <c r="K11" s="10">
-        <v>33</v>
-      </c>
-      <c r="L11" s="10">
-        <v>27</v>
-      </c>
-      <c r="M11" s="10">
-        <v>77</v>
-      </c>
-      <c r="N11" s="24">
-        <f t="shared" si="9"/>
-        <v>137</v>
-      </c>
-      <c r="O11" s="10">
-        <v>95</v>
-      </c>
-      <c r="P11" s="10">
-        <v>76</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>80</v>
-      </c>
-      <c r="R11" s="24">
+    </row>
+    <row r="12" spans="1:19" ht="17" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="14">
+        <v>64</v>
+      </c>
+      <c r="C12" s="14">
+        <v>26</v>
+      </c>
+      <c r="D12" s="14">
+        <v>38</v>
+      </c>
+      <c r="E12" s="23">
         <f t="shared" si="10"/>
-        <v>251</v>
-      </c>
-      <c r="S11" s="25">
-        <f t="shared" si="12"/>
-        <v>388</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="17" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="10">
-        <v>64</v>
-      </c>
-      <c r="C12" s="10">
-        <v>26</v>
-      </c>
-      <c r="D12" s="10">
-        <v>38</v>
-      </c>
-      <c r="E12" s="24">
-        <f t="shared" si="8"/>
         <v>128</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="14">
         <v>52</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="14">
         <v>58</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="14">
         <v>75</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="23">
         <f>SUM(F12:H12)</f>
         <v>185</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="24">
+        <f t="shared" si="13"/>
+        <v>313</v>
+      </c>
+      <c r="K12" s="14">
+        <v>64</v>
+      </c>
+      <c r="L12" s="14">
+        <v>26</v>
+      </c>
+      <c r="M12" s="14">
+        <v>38</v>
+      </c>
+      <c r="N12" s="23">
         <f t="shared" si="11"/>
-        <v>313</v>
-      </c>
-      <c r="K12" s="10">
-        <v>64</v>
-      </c>
-      <c r="L12" s="10">
-        <v>26</v>
-      </c>
-      <c r="M12" s="10">
-        <v>38</v>
-      </c>
-      <c r="N12" s="24">
-        <f t="shared" si="9"/>
         <v>128</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="14">
         <v>40</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="14">
         <v>58</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="14">
         <v>120</v>
       </c>
-      <c r="R12" s="24">
-        <f t="shared" si="10"/>
+      <c r="R12" s="23">
+        <f t="shared" si="12"/>
         <v>218</v>
       </c>
-      <c r="S12" s="25">
-        <f t="shared" si="12"/>
+      <c r="S12" s="24">
+        <f t="shared" si="14"/>
         <v>346</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="16" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:19" ht="16" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="22">
-        <f t="shared" ref="B13:D13" si="13">SUM(B9:B12)</f>
+      <c r="B13" s="21">
+        <f t="shared" ref="B13:D13" si="15">SUM(B9:B12)</f>
         <v>221</v>
       </c>
-      <c r="C13" s="22">
-        <f t="shared" si="13"/>
+      <c r="C13" s="21">
+        <f t="shared" si="15"/>
         <v>161</v>
       </c>
-      <c r="D13" s="22">
-        <f t="shared" si="13"/>
+      <c r="D13" s="21">
+        <f t="shared" si="15"/>
         <v>400</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <f>SUM(E9:E12)</f>
         <v>782</v>
       </c>
-      <c r="F13" s="22">
-        <f t="shared" ref="F13:H13" si="14">SUM(F9:F12)</f>
+      <c r="F13" s="21">
+        <f t="shared" ref="F13:H13" si="16">SUM(F9:F12)</f>
         <v>345</v>
       </c>
-      <c r="G13" s="22">
-        <f t="shared" si="14"/>
+      <c r="G13" s="21">
+        <f t="shared" si="16"/>
         <v>389</v>
       </c>
-      <c r="H13" s="22">
-        <f t="shared" si="14"/>
+      <c r="H13" s="21">
+        <f t="shared" si="16"/>
         <v>506</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="21">
         <f>SUM(I9:I12)</f>
         <v>1240</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <f>SUM(J9:J12)</f>
         <v>2022</v>
       </c>
-      <c r="K13" s="22">
-        <f t="shared" ref="K13" si="15">SUM(K9:K12)</f>
+      <c r="K13" s="21">
+        <f t="shared" ref="K13" si="17">SUM(K9:K12)</f>
         <v>221</v>
       </c>
-      <c r="L13" s="22">
-        <f t="shared" ref="L13" si="16">SUM(L9:L12)</f>
+      <c r="L13" s="21">
+        <f t="shared" ref="L13" si="18">SUM(L9:L12)</f>
         <v>161</v>
       </c>
-      <c r="M13" s="22">
-        <f t="shared" ref="M13" si="17">SUM(M9:M12)</f>
+      <c r="M13" s="21">
+        <f t="shared" ref="M13" si="19">SUM(M9:M12)</f>
         <v>400</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="21">
         <f>SUM(N9:N12)</f>
         <v>782</v>
       </c>
-      <c r="O13" s="22">
-        <f t="shared" ref="O13" si="18">SUM(O9:O12)</f>
+      <c r="O13" s="21">
+        <f t="shared" ref="O13" si="20">SUM(O9:O12)</f>
         <v>333</v>
       </c>
-      <c r="P13" s="22">
-        <f t="shared" ref="P13" si="19">SUM(P9:P12)</f>
+      <c r="P13" s="21">
+        <f t="shared" ref="P13" si="21">SUM(P9:P12)</f>
         <v>389</v>
       </c>
-      <c r="Q13" s="22">
-        <f t="shared" ref="Q13" si="20">SUM(Q9:Q12)</f>
+      <c r="Q13" s="21">
+        <f t="shared" ref="Q13" si="22">SUM(Q9:Q12)</f>
         <v>551</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="21">
         <f>SUM(R9:R12)</f>
         <v>1273</v>
       </c>
-      <c r="S13" s="23">
+      <c r="S13" s="22">
         <f>SUM(S9:S12)</f>
         <v>2055</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="19"/>
-    </row>
-    <row r="15" spans="1:19" ht="17" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="30"/>
+    </row>
+    <row r="15" spans="1:19" ht="17" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="14">
         <v>124</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="14">
         <v>130</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="14">
         <v>231</v>
       </c>
-      <c r="E15" s="24">
-        <f t="shared" ref="E15:E19" si="21">SUM(B15:D15)</f>
+      <c r="E15" s="23">
+        <f t="shared" ref="E15:E18" si="23">SUM(B15:D15)</f>
         <v>485</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="14">
         <v>112</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="14">
         <v>90</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="14">
         <v>184</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="23">
         <f>SUM(F15:H15)</f>
         <v>386</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="24">
         <f>SUM(E15,I15)</f>
         <v>871</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="14">
         <v>124</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="14">
         <v>130</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="14">
         <v>231</v>
       </c>
-      <c r="N15" s="24">
-        <f t="shared" ref="N15:N19" si="22">SUM(K15:M15)</f>
+      <c r="N15" s="23">
+        <f t="shared" ref="N15:N18" si="24">SUM(K15:M15)</f>
         <v>485</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="14">
         <v>112</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="14">
         <v>90</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="14">
         <v>184</v>
       </c>
-      <c r="R15" s="24">
-        <f t="shared" ref="R15:R19" si="23">SUM(O15:Q15)</f>
+      <c r="R15" s="23">
+        <f t="shared" ref="R15:R18" si="25">SUM(O15:Q15)</f>
         <v>386</v>
       </c>
-      <c r="S15" s="25">
+      <c r="S15" s="24">
         <f>SUM(N15,R15)</f>
         <v>871</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="17" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:19" ht="17" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="14">
         <v>74</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="14">
         <v>125</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="14">
         <v>120</v>
       </c>
-      <c r="E16" s="24">
-        <f t="shared" si="21"/>
+      <c r="E16" s="23">
+        <f t="shared" si="23"/>
         <v>319</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="14">
         <v>12</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="14">
         <v>18</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="14">
         <v>101</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="23">
         <f>SUM(F16:H16)</f>
         <v>131</v>
       </c>
-      <c r="J16" s="25">
-        <f t="shared" ref="J16:J18" si="24">SUM(E16,I16)</f>
+      <c r="J16" s="24">
+        <f t="shared" ref="J16:J18" si="26">SUM(E16,I16)</f>
         <v>450</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="14">
         <v>74</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="14">
         <v>125</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="14">
         <v>120</v>
       </c>
-      <c r="N16" s="24">
-        <f t="shared" si="22"/>
+      <c r="N16" s="23">
+        <f t="shared" si="24"/>
         <v>319</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="14">
         <v>12</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="14">
         <v>18</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="14">
         <v>101</v>
       </c>
-      <c r="R16" s="24">
+      <c r="R16" s="23">
+        <f t="shared" si="25"/>
+        <v>131</v>
+      </c>
+      <c r="S16" s="24">
+        <f t="shared" ref="S16:S18" si="27">SUM(N16,R16)</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="17" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="14">
+        <v>95</v>
+      </c>
+      <c r="C17" s="14">
+        <v>76</v>
+      </c>
+      <c r="D17" s="14">
+        <v>80</v>
+      </c>
+      <c r="E17" s="23">
         <f t="shared" si="23"/>
-        <v>131</v>
-      </c>
-      <c r="S16" s="25">
-        <f t="shared" ref="S16:S18" si="25">SUM(N16,R16)</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="17" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="10">
-        <v>95</v>
-      </c>
-      <c r="C17" s="10">
-        <v>76</v>
-      </c>
-      <c r="D17" s="10">
-        <v>80</v>
-      </c>
-      <c r="E17" s="24">
-        <f t="shared" si="21"/>
         <v>251</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="14">
         <v>33</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="14">
         <v>27</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="14">
         <v>77</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="23">
         <f>SUM(F17:H17)</f>
         <v>137</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="24">
+        <f t="shared" si="26"/>
+        <v>388</v>
+      </c>
+      <c r="K17" s="14">
+        <v>95</v>
+      </c>
+      <c r="L17" s="14">
+        <v>76</v>
+      </c>
+      <c r="M17" s="14">
+        <v>80</v>
+      </c>
+      <c r="N17" s="23">
         <f t="shared" si="24"/>
+        <v>251</v>
+      </c>
+      <c r="O17" s="14">
+        <v>33</v>
+      </c>
+      <c r="P17" s="14">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>77</v>
+      </c>
+      <c r="R17" s="23">
+        <f t="shared" si="25"/>
+        <v>137</v>
+      </c>
+      <c r="S17" s="24">
+        <f t="shared" si="27"/>
         <v>388</v>
       </c>
-      <c r="K17" s="10">
-        <v>95</v>
-      </c>
-      <c r="L17" s="10">
-        <v>76</v>
-      </c>
-      <c r="M17" s="10">
-        <v>80</v>
-      </c>
-      <c r="N17" s="24">
-        <f t="shared" si="22"/>
-        <v>251</v>
-      </c>
-      <c r="O17" s="10">
-        <v>33</v>
-      </c>
-      <c r="P17" s="10">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>77</v>
-      </c>
-      <c r="R17" s="24">
+    </row>
+    <row r="18" spans="1:19" ht="17" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="14">
+        <v>52</v>
+      </c>
+      <c r="C18" s="14">
+        <v>58</v>
+      </c>
+      <c r="D18" s="14">
+        <v>75</v>
+      </c>
+      <c r="E18" s="23">
         <f t="shared" si="23"/>
-        <v>137</v>
-      </c>
-      <c r="S17" s="25">
-        <f t="shared" si="25"/>
-        <v>388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="17" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="10">
-        <v>52</v>
-      </c>
-      <c r="C18" s="10">
-        <v>58</v>
-      </c>
-      <c r="D18" s="10">
-        <v>75</v>
-      </c>
-      <c r="E18" s="24">
-        <f t="shared" si="21"/>
         <v>185</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="14">
         <v>64</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="14">
         <v>26</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="14">
         <v>38</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="23">
         <f>SUM(F18:H18)</f>
         <v>128</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="24">
+        <f t="shared" si="26"/>
+        <v>313</v>
+      </c>
+      <c r="K18" s="14">
+        <v>40</v>
+      </c>
+      <c r="L18" s="14">
+        <v>58</v>
+      </c>
+      <c r="M18" s="14">
+        <v>120</v>
+      </c>
+      <c r="N18" s="23">
         <f t="shared" si="24"/>
-        <v>313</v>
-      </c>
-      <c r="K18" s="10">
-        <v>40</v>
-      </c>
-      <c r="L18" s="10">
-        <v>58</v>
-      </c>
-      <c r="M18" s="10">
-        <v>120</v>
-      </c>
-      <c r="N18" s="24">
-        <f t="shared" si="22"/>
         <v>218</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="14">
         <v>64</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="14">
         <v>26</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="14">
         <v>38</v>
       </c>
-      <c r="R18" s="24">
-        <f t="shared" si="23"/>
+      <c r="R18" s="23">
+        <f t="shared" si="25"/>
         <v>128</v>
       </c>
-      <c r="S18" s="25">
-        <f t="shared" si="25"/>
+      <c r="S18" s="24">
+        <f t="shared" si="27"/>
         <v>346</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="16" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:19" ht="16" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="22">
-        <f t="shared" ref="B19" si="26">SUM(B15:B18)</f>
+      <c r="B19" s="21">
+        <f t="shared" ref="B19" si="28">SUM(B15:B18)</f>
         <v>345</v>
       </c>
-      <c r="C19" s="22">
-        <f t="shared" ref="C19" si="27">SUM(C15:C18)</f>
+      <c r="C19" s="21">
+        <f t="shared" ref="C19" si="29">SUM(C15:C18)</f>
         <v>389</v>
       </c>
-      <c r="D19" s="22">
-        <f t="shared" ref="D19" si="28">SUM(D15:D18)</f>
+      <c r="D19" s="21">
+        <f t="shared" ref="D19" si="30">SUM(D15:D18)</f>
         <v>506</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <f>SUM(E15:E18)</f>
         <v>1240</v>
       </c>
-      <c r="F19" s="22">
-        <f t="shared" ref="F19" si="29">SUM(F15:F18)</f>
+      <c r="F19" s="21">
+        <f t="shared" ref="F19" si="31">SUM(F15:F18)</f>
         <v>221</v>
       </c>
-      <c r="G19" s="22">
-        <f t="shared" ref="G19" si="30">SUM(G15:G18)</f>
+      <c r="G19" s="21">
+        <f t="shared" ref="G19" si="32">SUM(G15:G18)</f>
         <v>161</v>
       </c>
-      <c r="H19" s="22">
-        <f t="shared" ref="H19" si="31">SUM(H15:H18)</f>
+      <c r="H19" s="21">
+        <f t="shared" ref="H19" si="33">SUM(H15:H18)</f>
         <v>400</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="21">
         <f>SUM(I15:I18)</f>
         <v>782</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="22">
         <f>SUM(J15:J18)</f>
         <v>2022</v>
       </c>
-      <c r="K19" s="22">
-        <f t="shared" ref="K19" si="32">SUM(K15:K18)</f>
+      <c r="K19" s="21">
+        <f t="shared" ref="K19" si="34">SUM(K15:K18)</f>
         <v>333</v>
       </c>
-      <c r="L19" s="22">
-        <f t="shared" ref="L19" si="33">SUM(L15:L18)</f>
+      <c r="L19" s="21">
+        <f t="shared" ref="L19" si="35">SUM(L15:L18)</f>
         <v>389</v>
       </c>
-      <c r="M19" s="22">
-        <f t="shared" ref="M19" si="34">SUM(M15:M18)</f>
+      <c r="M19" s="21">
+        <f t="shared" ref="M19" si="36">SUM(M15:M18)</f>
         <v>551</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="21">
         <f>SUM(N15:N18)</f>
         <v>1273</v>
       </c>
-      <c r="O19" s="22">
-        <f t="shared" ref="O19" si="35">SUM(O15:O18)</f>
+      <c r="O19" s="21">
+        <f t="shared" ref="O19" si="37">SUM(O15:O18)</f>
         <v>221</v>
       </c>
-      <c r="P19" s="22">
-        <f t="shared" ref="P19" si="36">SUM(P15:P18)</f>
+      <c r="P19" s="21">
+        <f t="shared" ref="P19" si="38">SUM(P15:P18)</f>
         <v>161</v>
       </c>
-      <c r="Q19" s="22">
-        <f t="shared" ref="Q19" si="37">SUM(Q15:Q18)</f>
+      <c r="Q19" s="21">
+        <f t="shared" ref="Q19" si="39">SUM(Q15:Q18)</f>
         <v>400</v>
       </c>
-      <c r="R19" s="22">
+      <c r="R19" s="21">
         <f>SUM(R15:R18)</f>
         <v>782</v>
       </c>
-      <c r="S19" s="23">
+      <c r="S19" s="22">
         <f>SUM(S15:S18)</f>
         <v>2055</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="27">
         <f>SUM(B7,B13,B19)</f>
         <v>806</v>
       </c>
-      <c r="C20" s="28">
-        <f t="shared" ref="C20:E20" si="38">SUM(C7,C13,C19)</f>
+      <c r="C20" s="27">
+        <f t="shared" ref="C20:E20" si="40">SUM(C7,C13,C19)</f>
         <v>712</v>
       </c>
-      <c r="D20" s="28">
-        <f t="shared" si="38"/>
+      <c r="D20" s="27">
+        <f t="shared" si="40"/>
         <v>1098</v>
       </c>
-      <c r="E20" s="28">
-        <f t="shared" si="38"/>
+      <c r="E20" s="27">
+        <f t="shared" si="40"/>
         <v>2616</v>
       </c>
-      <c r="F20" s="28">
-        <f t="shared" ref="F20" si="39">SUM(F7,F13,F19)</f>
+      <c r="F20" s="27">
+        <f t="shared" ref="F20" si="41">SUM(F7,F13,F19)</f>
         <v>805</v>
       </c>
-      <c r="G20" s="28">
-        <f t="shared" ref="G20" si="40">SUM(G7,G13,G19)</f>
+      <c r="G20" s="27">
+        <f t="shared" ref="G20" si="42">SUM(G7,G13,G19)</f>
         <v>877</v>
       </c>
-      <c r="H20" s="28">
-        <f t="shared" ref="H20" si="41">SUM(H7,H13,H19)</f>
+      <c r="H20" s="27">
+        <f t="shared" ref="H20" si="43">SUM(H7,H13,H19)</f>
         <v>1468</v>
       </c>
-      <c r="I20" s="28">
-        <f t="shared" ref="I20" si="42">SUM(I7,I13,I19)</f>
+      <c r="I20" s="27">
+        <f t="shared" ref="I20" si="44">SUM(I7,I13,I19)</f>
         <v>3150</v>
       </c>
-      <c r="J20" s="28">
-        <f t="shared" ref="J20" si="43">SUM(J7,J13,J19)</f>
+      <c r="J20" s="27">
+        <f t="shared" ref="J20" si="45">SUM(J7,J13,J19)</f>
         <v>5766</v>
       </c>
-      <c r="K20" s="28">
-        <f t="shared" ref="K20" si="44">SUM(K7,K13,K19)</f>
+      <c r="K20" s="27">
+        <f t="shared" ref="K20" si="46">SUM(K7,K13,K19)</f>
         <v>797</v>
       </c>
-      <c r="L20" s="28">
-        <f t="shared" ref="L20" si="45">SUM(L7,L13,L19)</f>
+      <c r="L20" s="27">
+        <f t="shared" ref="L20" si="47">SUM(L7,L13,L19)</f>
         <v>719</v>
       </c>
-      <c r="M20" s="28">
-        <f t="shared" ref="M20" si="46">SUM(M7,M13,M19)</f>
+      <c r="M20" s="27">
+        <f t="shared" ref="M20" si="48">SUM(M7,M13,M19)</f>
         <v>1108</v>
       </c>
-      <c r="N20" s="28">
-        <f t="shared" ref="N20" si="47">SUM(N7,N13,N19)</f>
+      <c r="N20" s="27">
+        <f t="shared" ref="N20" si="49">SUM(N7,N13,N19)</f>
         <v>2624</v>
       </c>
-      <c r="O20" s="28">
-        <f t="shared" ref="O20" si="48">SUM(O7,O13,O19)</f>
+      <c r="O20" s="27">
+        <f t="shared" ref="O20" si="50">SUM(O7,O13,O19)</f>
         <v>840</v>
       </c>
-      <c r="P20" s="28">
-        <f t="shared" ref="P20" si="49">SUM(P7,P13,P19)</f>
+      <c r="P20" s="27">
+        <f t="shared" ref="P20" si="51">SUM(P7,P13,P19)</f>
         <v>877</v>
       </c>
-      <c r="Q20" s="28">
-        <f t="shared" ref="Q20" si="50">SUM(Q7,Q13,Q19)</f>
+      <c r="Q20" s="27">
+        <f t="shared" ref="Q20" si="52">SUM(Q7,Q13,Q19)</f>
         <v>1467</v>
       </c>
-      <c r="R20" s="28">
-        <f t="shared" ref="R20" si="51">SUM(R7,R13,R19)</f>
+      <c r="R20" s="27">
+        <f t="shared" ref="R20" si="53">SUM(R7,R13,R19)</f>
         <v>3184</v>
       </c>
-      <c r="S20" s="28">
-        <f t="shared" ref="S20" si="52">SUM(S7,S13,S19)</f>
+      <c r="S20" s="27">
+        <f t="shared" ref="S20" si="54">SUM(S7,S13,S19)</f>
         <v>5808</v>
       </c>
     </row>
